--- a/classfiers/chatty/decisionTree/smote/chatty-decisionTree-smote-results.xlsx
+++ b/classfiers/chatty/decisionTree/smote/chatty-decisionTree-smote-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9975786924939467</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9951458565589001</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.985781990521327</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9975148643626904</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9976019184652278</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9975380899293943</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9927710843373494</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9950523932880581</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9895986330442799</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9980676328502416</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9937851987020316</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9970502408278087</v>
       </c>
     </row>
   </sheetData>
